--- a/biology/Médecine/Bernard-Marie_Dupont/Bernard-Marie_Dupont.xlsx
+++ b/biology/Médecine/Bernard-Marie_Dupont/Bernard-Marie_Dupont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernard-Marie Dupont, né le 11 février 1958[1], est Avocat au Barreau d'Arras, enseignant de philosophie (Paris XI), spécialisé dans l’éthique médicale, connu pour ses prises de position en faveur du développement de l'épistémologie, de l'Evidence-Base Medicine (EBM), des soins palliatifs. Il fut également médecin spécialiste, universitaire, au Royaume-Uni et au Canada.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernard-Marie Dupont, né le 11 février 1958, est Avocat au Barreau d'Arras, enseignant de philosophie (Paris XI), spécialisé dans l’éthique médicale, connu pour ses prises de position en faveur du développement de l'épistémologie, de l'Evidence-Base Medicine (EBM), des soins palliatifs. Il fut également médecin spécialiste, universitaire, au Royaume-Uni et au Canada.
 </t>
         </is>
       </c>
@@ -511,20 +523,22 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est docteur en médecine, docteur en génétique, docteur en philosophie, docteur habilité à diriger des recherches (HDR, université de Paris XI-Orsay)
 En juillet 2014, il a soutenu avec succès son Doctorat en Droit privé et Sciences criminelles. Sa thèse avait pour titre : Euthanasie et suicide médicalement assisté : le droit français peut-il et doit-il évoluer ?
 Il plaide pour le maintien de l'interdit de la légalisation de l'euthanasie, pour des raisons juridiques et philosophiques.
 À Venise, il a été directeur du conseil scientifique l’Académie internationale des Sciences de l’environnement, dont le président est Adolfo Pérez Esquivel, Prix Nobel de la Paix.
-Après avoir exercé une dizaine d’années au Royaume-Uni, comme médecin et comme chercheur, Bernard-Marie Dupont a été professeur au centre hospitalo-universitaire et à la Faculté de Médecine de l’Université Laval (Ville de Québec, Canada)[2].
-En France, habilité à diriger des recherches (HDR), il enseigne également la philosophie des sciences, la bioéthique, et l’histoire de la philosophie à l’Espace éthique de l’Assistance publique - Hôpitaux de Paris[3] (AP-HP), université Paris XI-Orsay, équipe d’accueil 1610, « Études sur les sciences et les techniques, département de recherche en éthique ».
+Après avoir exercé une dizaine d’années au Royaume-Uni, comme médecin et comme chercheur, Bernard-Marie Dupont a été professeur au centre hospitalo-universitaire et à la Faculté de Médecine de l’Université Laval (Ville de Québec, Canada).
+En France, habilité à diriger des recherches (HDR), il enseigne également la philosophie des sciences, la bioéthique, et l’histoire de la philosophie à l’Espace éthique de l’Assistance publique - Hôpitaux de Paris (AP-HP), université Paris XI-Orsay, équipe d’accueil 1610, « Études sur les sciences et les techniques, département de recherche en éthique ».
 Il a enseigné longtemps les soins palliatifs en faculté de médecine de [Paris, Lille, Rennes].
 Il a été de 2000 à 2006 membre du Comité d’éthique de l’INSERM.
 Il a fondé et dirigé pendant onze années Medethic, entreprise de conseil, d’audit et d’expertise bioéthique. Il a créé en janvier 2013, à Londres, la société Ethics, Law and Science Associates Ltd (ELSA), qui poursuit au niveau international la réflexion entreprise en France sur les valeurs du soin, et tente de rapprocher des cultures scientifiques et juridiques différentes. Il s'intéresse particulièrement à la confrontation, dans le droit de la santé, entre le droit civiliste français et le droit de tradition common law.
-Il a présidé plusieurs comités d’éthique, dont celui des hôpitaux de Saint-Malo, Cancale et Dinan[4] et celui de la clinique Saint-Roch de Cambrai.
-En 2013, il a été président de l'Institut européen d'éthique de la santé à Bruxelles et membre du conseil scientifique du forum européen de bioéthique à Bruxelles[5].
-Il participe à des discussions grand public sur les questions éthiques contre la médicalisation outrancière de la vie, surtout de la fin de la vie, prenant position pour le développement des soins palliatifs et contre la légalisation de l'euthanasie[6].
+Il a présidé plusieurs comités d’éthique, dont celui des hôpitaux de Saint-Malo, Cancale et Dinan et celui de la clinique Saint-Roch de Cambrai.
+En 2013, il a été président de l'Institut européen d'éthique de la santé à Bruxelles et membre du conseil scientifique du forum européen de bioéthique à Bruxelles.
+Il participe à des discussions grand public sur les questions éthiques contre la médicalisation outrancière de la vie, surtout de la fin de la vie, prenant position pour le développement des soins palliatifs et contre la légalisation de l'euthanasie.
 </t>
         </is>
       </c>
@@ -553,7 +567,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Image, philosophie et médecine, le corps en regards (avec Corrine Pieters), Ellipses, 2000
 Le corps en partance, L'Escarre (revue), 2000/06; p. 19-20
@@ -567,7 +583,7 @@
 Éthique du bénévolat en soins palliatifs : regard de la société sur un partenariat particulier, Médecine Palliative. 2006/12; 5(6) : p. 333-336
 Alzheimer, fin de vie et dignité, Médecine Palliative. 2007/12; 6(6) : p. 307-308
 Pilotage hospitalier et éthique, Soins Cadres de Santé. 2008/08; (67) : p. 28-30
-D'un prétendu droit de mourir par humanité : L'euthanasie en question François Bourin Éditeur, 2011[7],[8]
+D'un prétendu droit de mourir par humanité : L'euthanasie en question François Bourin Éditeur, 2011,
 Traverser l’espace ou habiter le temps?, VST - Vie sociale et traitements 2009/4 n° 104, pg 82-85 (Texte Conférence 18e Congrès de la Société Française d’Accompagnement et de Soins Palliatifs)
 Épistémologie du raisonnement médical contemporain, dans: Emmanuel Hirsch, Traité de bioéthique, pg 624-641  (ERES, 2010)
 Être humain ou l’essence d’une vie, dans Emmanuel Hirsch, Fins de vie, éthique et société, pg 54-56 (ERES, 2012)
